--- a/编码器版/RIKIROBOT.xlsx
+++ b/编码器版/RIKIROBOT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CBD55D-864D-4777-936C-322BD3A2997E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2860D44B-C8B3-40D9-9F37-4CD7F25E4E06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
     <t>PA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,14 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电机1B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机1A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TIM5 编码器2A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,14 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电机2B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机2A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TIM1PWM 电机1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,27 +344,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIM2 编码器3A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM2 编码器3B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机3B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机3A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机4B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电机4A</t>
+    <t>按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM8PWM 电机1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM8PWM 电机2</t>
+  </si>
+  <si>
+    <t>TIM8PWM 电机3</t>
+  </si>
+  <si>
+    <t>TIM8PWM 电机4</t>
+  </si>
+  <si>
+    <t>TIM2 编码器3A（重映射）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM2 编码器3B（重映射）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +694,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -726,22 +711,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
       <c r="E1" t="s">
         <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
         <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
       </c>
       <c r="I1" t="s">
         <v>64</v>
@@ -752,22 +737,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>105</v>
-      </c>
       <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
       </c>
       <c r="I2" t="s">
         <v>65</v>
@@ -777,20 +762,20 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
       <c r="E3" t="s">
         <v>34</v>
       </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
       <c r="G3" t="s">
         <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
       </c>
       <c r="I3" t="s">
         <v>66</v>
@@ -800,20 +785,23 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
       </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
       <c r="G4" t="s">
         <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>98</v>
       </c>
       <c r="I4" t="s">
         <v>67</v>
@@ -823,20 +811,17 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
       <c r="G5" t="s">
         <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
       </c>
       <c r="I5" t="s">
         <v>68</v>
@@ -846,17 +831,11 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>95</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -870,16 +849,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
       </c>
       <c r="G7" t="s">
         <v>54</v>
@@ -893,16 +875,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>55</v>
@@ -919,10 +904,13 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
       </c>
       <c r="G9" t="s">
         <v>56</v>
@@ -942,11 +930,14 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
       </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
       <c r="G10" t="s">
         <v>57</v>
       </c>
@@ -954,7 +945,7 @@
         <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1000,7 +991,7 @@
         <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1037,7 +1028,7 @@
         <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1057,12 +1048,15 @@
         <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>

--- a/编码器版/RIKIROBOT.xlsx
+++ b/编码器版/RIKIROBOT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2860D44B-C8B3-40D9-9F37-4CD7F25E4E06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DF7F43-E2E7-4836-AF32-543CB88B0E66}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,14 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIM4 编码器2A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM4 编码器2B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SDA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -366,6 +358,14 @@
   </si>
   <si>
     <t>TIM2 编码器3B（重映射）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM4 编码器1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM4 编码器1B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +694,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,13 +720,13 @@
         <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s">
         <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I1" t="s">
         <v>64</v>
@@ -746,13 +746,13 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
         <v>65</v>
@@ -769,13 +769,13 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
         <v>66</v>
@@ -789,19 +789,19 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
         <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
         <v>67</v>
@@ -821,7 +821,7 @@
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
         <v>68</v>
@@ -849,19 +849,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
         <v>54</v>
@@ -875,19 +875,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>55</v>
@@ -904,13 +904,13 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
         <v>56</v>
@@ -930,13 +930,13 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
@@ -945,7 +945,7 @@
         <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
         <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
         <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1048,7 +1048,7 @@
         <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1056,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
